--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135680.734430407</v>
+        <v>1129676.524615128</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283207</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10877020.40198928</v>
+        <v>11133453.37367292</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7307299422354</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>208.3615960537175</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>15.07437110675892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88471653142353</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5063800517381</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699511</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>45.10683729225598</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>257.6276659754737</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>120.4523512445031</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>260.6963593708901</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.22992883261801</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>186.4479095884334</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>99.59933623926882</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.1474991249032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>13.94435783112388</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4366,16 +4366,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.8553933260938</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y4" t="n">
-        <v>231.8553933260938</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2085.807325826218</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002385</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>126.035399745235</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2472.40716589034</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>112.0745783435531</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758594</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.920382101508</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>482.9841991736012</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>482.9841991736012</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>335.071105591208</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>188.1811580932977</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>188.1811580932977</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>651.920382101508</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3268.807913697436</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>3062.830166081658</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3062.830166081658</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2731.767278738087</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2731.767278738087</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2731.767278738087</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836212</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836212</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836212</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836212</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836212</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836212</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836212</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836212</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>821.1650657389509</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>821.1650657389509</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,28 +5530,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5582,37 +5582,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232836</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,16 +5779,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.652647788939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861032</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448697</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866303</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559376</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903574</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697687</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660727</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.093691762709</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.301112619179</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.09369176271</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.30111261918</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4262.384993990607</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>4262.384993990607</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990607</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.95783295555784</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491476</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>265.6735555317387</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.37549921168775</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>204.6402955209709</v>
       </c>
     </row>
     <row r="20">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>127.9379057921822</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811712.2299868733</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811712.2299868732</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409665</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409669</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958766.3020409666</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545141</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211609</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211609</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26530,40 +26530,40 @@
         <v>273811.0100874251</v>
       </c>
       <c r="E6" t="n">
-        <v>306850.0322230495</v>
+        <v>26059.89168434133</v>
       </c>
       <c r="F6" t="n">
-        <v>306850.0322230493</v>
+        <v>351472.3534916959</v>
       </c>
       <c r="G6" t="n">
-        <v>41976.69928623317</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="H6" t="n">
-        <v>351819.7327460531</v>
+        <v>351472.3534916958</v>
       </c>
       <c r="I6" t="n">
-        <v>351819.732746053</v>
+        <v>351472.3534916957</v>
       </c>
       <c r="J6" t="n">
-        <v>134288.5303487756</v>
+        <v>133941.1510944186</v>
       </c>
       <c r="K6" t="n">
-        <v>351819.732746053</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="L6" t="n">
-        <v>351819.732746053</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="M6" t="n">
-        <v>351819.7327460529</v>
+        <v>266417.3255561843</v>
       </c>
       <c r="N6" t="n">
-        <v>351819.732746053</v>
+        <v>351472.3534916961</v>
       </c>
       <c r="O6" t="n">
-        <v>269683.9021506015</v>
+        <v>351472.3534916963</v>
       </c>
       <c r="P6" t="n">
-        <v>351819.7327460533</v>
+        <v>351472.3534916961</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,20 +26968,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>66.54216182877218</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>140.8793726636955</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.1724499918689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>198.6999368206713</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.7665117192694</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>120.9189709667722</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>107.6452257955339</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>24.30266366981766</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>25.51547883472273</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>248.3870916262923</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32812,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>108.4053175402708</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36460,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129676.524615128</v>
+        <v>1132831.44395735</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283207</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11133453.37367292</v>
+        <v>10877020.40198928</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>298.7307299422354</v>
+        <v>94.81275980261395</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>27.00971856836553</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.88471653142353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699511</v>
+        <v>136.0870494265616</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.10683729225598</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>260.6963593708901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>289.9322605538783</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.4479095884334</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.54367350501148</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>349.4328115444919</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>110.0177171766856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>177.4507143278949</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>26.13627195705825</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S28" t="n">
-        <v>53.08838020946239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089666</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.616430926768</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4482,22 +4482,22 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4530,7 +4530,7 @@
         <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.022040344356</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
         <v>1175.936468090393</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.88200728809</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E5" t="n">
-        <v>952.093754689846</v>
+        <v>1072.029036224762</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002385</v>
+        <v>661.0431314351542</v>
       </c>
       <c r="G5" t="n">
-        <v>126.035399745235</v>
+        <v>245.9706812801507</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.9304417640992</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>556.9942588361923</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>406.8776194238566</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>258.9645258414635</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>112.0745783435531</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.371485737869</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943389</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,16 +4837,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U10" t="n">
-        <v>1160.681935312181</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V10" t="n">
-        <v>1160.681935312181</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2668.92380716376</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2329.16735763708</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2329.16735763708</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069454</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,49 +5518,49 @@
         <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5582,31 +5582,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S28" t="n">
-        <v>2393.338457106056</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T28" t="n">
-        <v>2393.338457106056</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207406</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4041655335323</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>664.2875261211965</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>516.3744325388034</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>369.484485040893</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>79.79884012459075</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>30.95754073885482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.0409798470833</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15.84008022651562</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.41624546988356</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>41.13393902419992</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1584408891656</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S28" t="n">
-        <v>127.9379057921822</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.889702261794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>32.90770736550081</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958766.3020409668</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958766.3020409667</v>
+        <v>811712.2299868732</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409665</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.3020409669</v>
+        <v>958766.3020409666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409667</v>
+        <v>958766.3020409668</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26334,28 +26334,28 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598197</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545133</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1054933.735640167</v>
       </c>
       <c r="C6" t="n">
-        <v>273811.0100874251</v>
+        <v>273811.0100874249</v>
       </c>
       <c r="D6" t="n">
-        <v>273811.0100874251</v>
+        <v>273811.0100874249</v>
       </c>
       <c r="E6" t="n">
-        <v>26059.89168434133</v>
+        <v>306502.4132932432</v>
       </c>
       <c r="F6" t="n">
-        <v>351472.3534916959</v>
+        <v>306502.4132932434</v>
       </c>
       <c r="G6" t="n">
-        <v>351472.3534916961</v>
+        <v>41941.96136079753</v>
       </c>
       <c r="H6" t="n">
-        <v>351472.3534916958</v>
+        <v>351784.9948206171</v>
       </c>
       <c r="I6" t="n">
-        <v>351472.3534916957</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="J6" t="n">
-        <v>133941.1510944186</v>
+        <v>134253.79242334</v>
       </c>
       <c r="K6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="L6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="M6" t="n">
-        <v>266417.3255561843</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="N6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="O6" t="n">
-        <v>351472.3534916963</v>
+        <v>269649.164225166</v>
       </c>
       <c r="P6" t="n">
-        <v>351472.3534916961</v>
+        <v>351784.9948206171</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,43 +26965,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483752</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>66.54216182877218</v>
+        <v>270.4601319683936</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>198.6999368206716</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6999368206713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803253</v>
+        <v>158.5207149607589</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.9189709667722</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>31.98681829672469</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>25.51547883472273</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262923</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402708</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
